--- a/pricing_table.xlsx
+++ b/pricing_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TakuyaYokota\Desktop\CDP_Estimation_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E863BD3A-95E9-4573-A25E-58D8667AFE63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{816B9DDB-7DDF-4AC3-AB2F-0074B05C730F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11385" yWindow="-17205" windowWidth="18735" windowHeight="15645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5235" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,10 +146,6 @@
   </si>
   <si>
     <t>回答提出、入力漏れチェックします</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>仮採点結果に基づき、翌年に向けた取り組み事項の整理をします</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -257,9 +253,6 @@
     <t>回答提出、入力漏れチェックします</t>
   </si>
   <si>
-    <t>仮採点結果に基づき、翌年に向けた取り組み事項の整理をします</t>
-  </si>
-  <si>
     <t>勉強会×1回（1h）、資料準備（5h）（※内容：CDP概要および進め方）を行います</t>
     <rPh sb="37" eb="38">
       <t>オコナ</t>
@@ -298,6 +291,25 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>ジッシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮採点結果に基づき、翌年に向けた取り組み事項の整理をします（回答案作成先に限る）</t>
+  </si>
+  <si>
+    <t>仮採点結果に基づき、翌年に向けた取り組み事項の整理をします（回答案作成先に限る）</t>
+    <rPh sb="30" eb="33">
+      <t>カイトウアン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カギ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -626,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="66" workbookViewId="0">
-      <selection activeCell="C170" sqref="C170"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="66" workbookViewId="0">
+      <selection activeCell="G168" sqref="G168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -647,7 +659,7 @@
         <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s">
         <v>16</v>
@@ -670,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -693,7 +705,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -716,7 +728,7 @@
         <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -739,7 +751,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -762,7 +774,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
@@ -785,7 +797,7 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
         <v>25</v>
@@ -797,7 +809,7 @@
         <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -808,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
@@ -820,7 +832,7 @@
         <v>5</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -831,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
@@ -854,7 +866,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>24</v>
@@ -877,7 +889,7 @@
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
@@ -900,7 +912,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>24</v>
@@ -923,7 +935,7 @@
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -946,7 +958,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>23</v>
@@ -958,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -969,7 +981,7 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -981,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -992,7 +1004,7 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
@@ -1015,7 +1027,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -1038,7 +1050,7 @@
         <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
@@ -1061,7 +1073,7 @@
         <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
@@ -1084,7 +1096,7 @@
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
         <v>17</v>
@@ -1107,7 +1119,7 @@
         <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
         <v>17</v>
@@ -1119,7 +1131,7 @@
         <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1130,7 +1142,7 @@
         <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
         <v>17</v>
@@ -1142,7 +1154,7 @@
         <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1153,7 +1165,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -1176,7 +1188,7 @@
         <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
@@ -1199,7 +1211,7 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -1222,7 +1234,7 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -1245,7 +1257,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
         <v>25</v>
@@ -1268,7 +1280,7 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
@@ -1280,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1291,7 +1303,7 @@
         <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -1303,7 +1315,7 @@
         <v>5</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1314,7 +1326,7 @@
         <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
@@ -1337,7 +1349,7 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D31" t="s">
         <v>23</v>
@@ -1360,7 +1372,7 @@
         <v>26</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
@@ -1383,7 +1395,7 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
@@ -1406,7 +1418,7 @@
         <v>26</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
         <v>23</v>
@@ -1429,7 +1441,7 @@
         <v>26</v>
       </c>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -1441,7 +1453,7 @@
         <v>5</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1452,7 +1464,7 @@
         <v>26</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
         <v>23</v>
@@ -1464,7 +1476,7 @@
         <v>5</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1475,7 +1487,7 @@
         <v>26</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -1498,7 +1510,7 @@
         <v>26</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -1521,7 +1533,7 @@
         <v>26</v>
       </c>
       <c r="C39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
@@ -1544,7 +1556,7 @@
         <v>26</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
         <v>17</v>
@@ -1567,7 +1579,7 @@
         <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
         <v>17</v>
@@ -1590,7 +1602,7 @@
         <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D42" t="s">
         <v>17</v>
@@ -1602,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="G42" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1613,7 +1625,7 @@
         <v>26</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
         <v>17</v>
@@ -1625,7 +1637,7 @@
         <v>5</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1636,19 +1648,19 @@
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F44">
         <v>5</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1659,19 +1671,19 @@
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45">
         <v>15</v>
       </c>
       <c r="G45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1682,7 +1694,7 @@
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
@@ -1705,7 +1717,7 @@
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
@@ -1728,7 +1740,7 @@
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
         <v>25</v>
@@ -1751,7 +1763,7 @@
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
         <v>25</v>
@@ -1763,7 +1775,7 @@
         <v>5</v>
       </c>
       <c r="G49" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1774,7 +1786,7 @@
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
         <v>25</v>
@@ -1786,7 +1798,7 @@
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1797,19 +1809,19 @@
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
         <v>24</v>
       </c>
       <c r="E51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F51">
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1820,19 +1832,19 @@
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
         <v>24</v>
       </c>
       <c r="E52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F52">
         <v>10</v>
       </c>
       <c r="G52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1843,13 +1855,13 @@
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
         <v>24</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F53">
         <v>17</v>
@@ -1866,13 +1878,13 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
         <v>24</v>
       </c>
       <c r="E54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F54">
         <v>10</v>
@@ -1889,7 +1901,7 @@
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
         <v>23</v>
@@ -1912,7 +1924,7 @@
         <v>13</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
         <v>23</v>
@@ -1924,7 +1936,7 @@
         <v>5</v>
       </c>
       <c r="G56" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1935,7 +1947,7 @@
         <v>13</v>
       </c>
       <c r="C57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
         <v>23</v>
@@ -1947,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="G57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1958,19 +1970,19 @@
         <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
         <v>17</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F58">
         <v>5</v>
       </c>
       <c r="G58" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1981,19 +1993,19 @@
         <v>13</v>
       </c>
       <c r="C59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
         <v>17</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F59">
         <v>5</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2004,7 +2016,7 @@
         <v>13</v>
       </c>
       <c r="C60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
         <v>17</v>
@@ -2027,7 +2039,7 @@
         <v>13</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
         <v>17</v>
@@ -2050,7 +2062,7 @@
         <v>13</v>
       </c>
       <c r="C62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
         <v>17</v>
@@ -2073,7 +2085,7 @@
         <v>13</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
         <v>17</v>
@@ -2085,7 +2097,7 @@
         <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2096,7 +2108,7 @@
         <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
         <v>17</v>
@@ -2108,7 +2120,7 @@
         <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2119,19 +2131,19 @@
         <v>26</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
         <v>25</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F65">
         <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2142,13 +2154,13 @@
         <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s">
         <v>25</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F66">
         <v>15</v>
@@ -2165,7 +2177,7 @@
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D67" t="s">
         <v>25</v>
@@ -2188,7 +2200,7 @@
         <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
         <v>25</v>
@@ -2211,7 +2223,7 @@
         <v>26</v>
       </c>
       <c r="C69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D69" t="s">
         <v>25</v>
@@ -2234,7 +2246,7 @@
         <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D70" t="s">
         <v>25</v>
@@ -2246,7 +2258,7 @@
         <v>5</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2257,7 +2269,7 @@
         <v>26</v>
       </c>
       <c r="C71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D71" t="s">
         <v>25</v>
@@ -2269,7 +2281,7 @@
         <v>5</v>
       </c>
       <c r="G71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2280,19 +2292,19 @@
         <v>26</v>
       </c>
       <c r="C72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D72" t="s">
         <v>24</v>
       </c>
       <c r="E72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F72">
         <v>5</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2303,13 +2315,13 @@
         <v>26</v>
       </c>
       <c r="C73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D73" t="s">
         <v>23</v>
       </c>
       <c r="E73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F73">
         <v>9</v>
@@ -2326,13 +2338,13 @@
         <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D74" t="s">
         <v>24</v>
       </c>
       <c r="E74" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F74">
         <v>9</v>
@@ -2349,13 +2361,13 @@
         <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D75" t="s">
         <v>24</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F75">
         <v>3</v>
@@ -2372,7 +2384,7 @@
         <v>26</v>
       </c>
       <c r="C76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D76" t="s">
         <v>23</v>
@@ -2395,7 +2407,7 @@
         <v>26</v>
       </c>
       <c r="C77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D77" t="s">
         <v>23</v>
@@ -2407,7 +2419,7 @@
         <v>5</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2418,7 +2430,7 @@
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D78" t="s">
         <v>23</v>
@@ -2430,7 +2442,7 @@
         <v>5</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2441,19 +2453,19 @@
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D79" t="s">
         <v>17</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F79">
         <v>5</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2464,13 +2476,13 @@
         <v>26</v>
       </c>
       <c r="C80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D80" t="s">
         <v>17</v>
       </c>
       <c r="E80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F80">
         <v>6</v>
@@ -2487,7 +2499,7 @@
         <v>26</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D81" t="s">
         <v>17</v>
@@ -2510,7 +2522,7 @@
         <v>26</v>
       </c>
       <c r="C82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D82" t="s">
         <v>17</v>
@@ -2533,7 +2545,7 @@
         <v>26</v>
       </c>
       <c r="C83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D83" t="s">
         <v>17</v>
@@ -2556,7 +2568,7 @@
         <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D84" t="s">
         <v>17</v>
@@ -2568,7 +2580,7 @@
         <v>5</v>
       </c>
       <c r="G84" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2579,7 +2591,7 @@
         <v>26</v>
       </c>
       <c r="C85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D85" t="s">
         <v>17</v>
@@ -2591,7 +2603,7 @@
         <v>5</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2602,10 +2614,10 @@
         <v>13</v>
       </c>
       <c r="C86" t="s">
+        <v>43</v>
+      </c>
+      <c r="D86" t="s">
         <v>44</v>
-      </c>
-      <c r="D86" t="s">
-        <v>45</v>
       </c>
       <c r="E86" t="s">
         <v>2</v>
@@ -2625,10 +2637,10 @@
         <v>13</v>
       </c>
       <c r="C87" t="s">
+        <v>43</v>
+      </c>
+      <c r="D87" t="s">
         <v>44</v>
-      </c>
-      <c r="D87" t="s">
-        <v>45</v>
       </c>
       <c r="E87" t="s">
         <v>3</v>
@@ -2637,7 +2649,7 @@
         <v>10</v>
       </c>
       <c r="G87" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2648,13 +2660,13 @@
         <v>13</v>
       </c>
       <c r="C88" t="s">
+        <v>43</v>
+      </c>
+      <c r="D88" t="s">
         <v>44</v>
       </c>
-      <c r="D88" t="s">
+      <c r="E88" t="s">
         <v>45</v>
-      </c>
-      <c r="E88" t="s">
-        <v>46</v>
       </c>
       <c r="F88">
         <v>0</v>
@@ -2671,10 +2683,10 @@
         <v>13</v>
       </c>
       <c r="C89" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" t="s">
         <v>44</v>
-      </c>
-      <c r="D89" t="s">
-        <v>45</v>
       </c>
       <c r="E89" t="s">
         <v>5</v>
@@ -2683,7 +2695,7 @@
         <v>15</v>
       </c>
       <c r="G89" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2694,10 +2706,10 @@
         <v>13</v>
       </c>
       <c r="C90" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" t="s">
         <v>44</v>
-      </c>
-      <c r="D90" t="s">
-        <v>45</v>
       </c>
       <c r="E90" t="s">
         <v>6</v>
@@ -2706,7 +2718,7 @@
         <v>10</v>
       </c>
       <c r="G90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2717,10 +2729,10 @@
         <v>13</v>
       </c>
       <c r="C91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" t="s">
         <v>44</v>
-      </c>
-      <c r="D91" t="s">
-        <v>45</v>
       </c>
       <c r="E91" t="s">
         <v>7</v>
@@ -2729,7 +2741,7 @@
         <v>5</v>
       </c>
       <c r="G91" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2740,10 +2752,10 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" t="s">
         <v>44</v>
-      </c>
-      <c r="D92" t="s">
-        <v>45</v>
       </c>
       <c r="E92" t="s">
         <v>8</v>
@@ -2752,7 +2764,7 @@
         <v>5</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2763,7 +2775,7 @@
         <v>13</v>
       </c>
       <c r="C93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D93" t="s">
         <v>24</v>
@@ -2775,7 +2787,7 @@
         <v>5</v>
       </c>
       <c r="G93" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2786,7 +2798,7 @@
         <v>13</v>
       </c>
       <c r="C94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D94" t="s">
         <v>24</v>
@@ -2798,7 +2810,7 @@
         <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2809,13 +2821,13 @@
         <v>13</v>
       </c>
       <c r="C95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D95" t="s">
         <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -2832,7 +2844,7 @@
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D96" t="s">
         <v>24</v>
@@ -2844,7 +2856,7 @@
         <v>15</v>
       </c>
       <c r="G96" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2855,7 +2867,7 @@
         <v>13</v>
       </c>
       <c r="C97" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D97" t="s">
         <v>23</v>
@@ -2867,7 +2879,7 @@
         <v>10</v>
       </c>
       <c r="G97" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2878,7 +2890,7 @@
         <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D98" t="s">
         <v>23</v>
@@ -2890,7 +2902,7 @@
         <v>5</v>
       </c>
       <c r="G98" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2901,7 +2913,7 @@
         <v>13</v>
       </c>
       <c r="C99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D99" t="s">
         <v>23</v>
@@ -2913,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2924,7 +2936,7 @@
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D100" t="s">
         <v>17</v>
@@ -2936,7 +2948,7 @@
         <v>5</v>
       </c>
       <c r="G100" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2947,7 +2959,7 @@
         <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D101" t="s">
         <v>17</v>
@@ -2959,7 +2971,7 @@
         <v>10</v>
       </c>
       <c r="G101" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2970,13 +2982,13 @@
         <v>13</v>
       </c>
       <c r="C102" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D102" t="s">
         <v>17</v>
       </c>
       <c r="E102" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -2993,7 +3005,7 @@
         <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D103" t="s">
         <v>17</v>
@@ -3005,7 +3017,7 @@
         <v>15</v>
       </c>
       <c r="G103" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3016,7 +3028,7 @@
         <v>13</v>
       </c>
       <c r="C104" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D104" t="s">
         <v>17</v>
@@ -3028,7 +3040,7 @@
         <v>10</v>
       </c>
       <c r="G104" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3039,7 +3051,7 @@
         <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D105" t="s">
         <v>17</v>
@@ -3051,7 +3063,7 @@
         <v>5</v>
       </c>
       <c r="G105" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3062,7 +3074,7 @@
         <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D106" t="s">
         <v>17</v>
@@ -3074,7 +3086,7 @@
         <v>5</v>
       </c>
       <c r="G106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3085,7 +3097,7 @@
         <v>26</v>
       </c>
       <c r="C107" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D107" t="s">
         <v>25</v>
@@ -3097,7 +3109,7 @@
         <v>5</v>
       </c>
       <c r="G107" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3108,19 +3120,19 @@
         <v>26</v>
       </c>
       <c r="C108" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D108" t="s">
         <v>25</v>
       </c>
       <c r="E108" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F108">
         <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3131,13 +3143,13 @@
         <v>26</v>
       </c>
       <c r="C109" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D109" t="s">
         <v>25</v>
       </c>
       <c r="E109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3154,19 +3166,19 @@
         <v>26</v>
       </c>
       <c r="C110" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D110" t="s">
         <v>25</v>
       </c>
       <c r="E110" t="s">
+        <v>51</v>
+      </c>
+      <c r="F110">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
         <v>53</v>
-      </c>
-      <c r="F110">
-        <v>5</v>
-      </c>
-      <c r="G110" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3177,7 +3189,7 @@
         <v>26</v>
       </c>
       <c r="C111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D111" t="s">
         <v>25</v>
@@ -3189,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="G111" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3200,7 +3212,7 @@
         <v>26</v>
       </c>
       <c r="C112" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D112" t="s">
         <v>25</v>
@@ -3212,7 +3224,7 @@
         <v>5</v>
       </c>
       <c r="G112" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3223,7 +3235,7 @@
         <v>26</v>
       </c>
       <c r="C113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D113" t="s">
         <v>25</v>
@@ -3235,7 +3247,7 @@
         <v>5</v>
       </c>
       <c r="G113" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3246,7 +3258,7 @@
         <v>26</v>
       </c>
       <c r="C114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D114" t="s">
         <v>23</v>
@@ -3258,7 +3270,7 @@
         <v>5</v>
       </c>
       <c r="G114" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3269,7 +3281,7 @@
         <v>26</v>
       </c>
       <c r="C115" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D115" t="s">
         <v>23</v>
@@ -3281,7 +3293,7 @@
         <v>10</v>
       </c>
       <c r="G115" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3292,13 +3304,13 @@
         <v>26</v>
       </c>
       <c r="C116" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D116" t="s">
         <v>23</v>
       </c>
       <c r="E116" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F116">
         <v>0</v>
@@ -3315,19 +3327,19 @@
         <v>26</v>
       </c>
       <c r="C117" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D117" t="s">
         <v>23</v>
       </c>
       <c r="E117" t="s">
+        <v>51</v>
+      </c>
+      <c r="F117">
+        <v>5</v>
+      </c>
+      <c r="G117" t="s">
         <v>53</v>
-      </c>
-      <c r="F117">
-        <v>5</v>
-      </c>
-      <c r="G117" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3338,7 +3350,7 @@
         <v>26</v>
       </c>
       <c r="C118" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D118" t="s">
         <v>23</v>
@@ -3350,7 +3362,7 @@
         <v>10</v>
       </c>
       <c r="G118" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3361,7 +3373,7 @@
         <v>26</v>
       </c>
       <c r="C119" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D119" t="s">
         <v>23</v>
@@ -3373,7 +3385,7 @@
         <v>5</v>
       </c>
       <c r="G119" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3384,7 +3396,7 @@
         <v>26</v>
       </c>
       <c r="C120" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D120" t="s">
         <v>23</v>
@@ -3396,7 +3408,7 @@
         <v>5</v>
       </c>
       <c r="G120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3407,7 +3419,7 @@
         <v>26</v>
       </c>
       <c r="C121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D121" t="s">
         <v>17</v>
@@ -3419,7 +3431,7 @@
         <v>5</v>
       </c>
       <c r="G121" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3430,7 +3442,7 @@
         <v>26</v>
       </c>
       <c r="C122" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D122" t="s">
         <v>17</v>
@@ -3442,7 +3454,7 @@
         <v>10</v>
       </c>
       <c r="G122" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3453,13 +3465,13 @@
         <v>26</v>
       </c>
       <c r="C123" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D123" t="s">
         <v>17</v>
       </c>
       <c r="E123" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F123">
         <v>0</v>
@@ -3476,19 +3488,19 @@
         <v>26</v>
       </c>
       <c r="C124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D124" t="s">
         <v>17</v>
       </c>
       <c r="E124" t="s">
+        <v>51</v>
+      </c>
+      <c r="F124">
+        <v>5</v>
+      </c>
+      <c r="G124" t="s">
         <v>53</v>
-      </c>
-      <c r="F124">
-        <v>5</v>
-      </c>
-      <c r="G124" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3499,7 +3511,7 @@
         <v>26</v>
       </c>
       <c r="C125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D125" t="s">
         <v>17</v>
@@ -3511,7 +3523,7 @@
         <v>10</v>
       </c>
       <c r="G125" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3522,7 +3534,7 @@
         <v>26</v>
       </c>
       <c r="C126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D126" t="s">
         <v>17</v>
@@ -3534,7 +3546,7 @@
         <v>5</v>
       </c>
       <c r="G126" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3545,7 +3557,7 @@
         <v>26</v>
       </c>
       <c r="C127" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D127" t="s">
         <v>17</v>
@@ -3557,7 +3569,7 @@
         <v>5</v>
       </c>
       <c r="G127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3568,10 +3580,10 @@
         <v>13</v>
       </c>
       <c r="C128" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" t="s">
         <v>44</v>
-      </c>
-      <c r="D128" t="s">
-        <v>45</v>
       </c>
       <c r="E128" t="s">
         <v>2</v>
@@ -3591,10 +3603,10 @@
         <v>13</v>
       </c>
       <c r="C129" t="s">
+        <v>43</v>
+      </c>
+      <c r="D129" t="s">
         <v>44</v>
-      </c>
-      <c r="D129" t="s">
-        <v>45</v>
       </c>
       <c r="E129" t="s">
         <v>3</v>
@@ -3603,7 +3615,7 @@
         <v>10</v>
       </c>
       <c r="G129" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3614,13 +3626,13 @@
         <v>13</v>
       </c>
       <c r="C130" t="s">
+        <v>43</v>
+      </c>
+      <c r="D130" t="s">
         <v>44</v>
       </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
         <v>45</v>
-      </c>
-      <c r="E130" t="s">
-        <v>46</v>
       </c>
       <c r="F130">
         <v>0</v>
@@ -3637,10 +3649,10 @@
         <v>13</v>
       </c>
       <c r="C131" t="s">
+        <v>43</v>
+      </c>
+      <c r="D131" t="s">
         <v>44</v>
-      </c>
-      <c r="D131" t="s">
-        <v>45</v>
       </c>
       <c r="E131" t="s">
         <v>5</v>
@@ -3649,7 +3661,7 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3660,10 +3672,10 @@
         <v>13</v>
       </c>
       <c r="C132" t="s">
+        <v>43</v>
+      </c>
+      <c r="D132" t="s">
         <v>44</v>
-      </c>
-      <c r="D132" t="s">
-        <v>45</v>
       </c>
       <c r="E132" t="s">
         <v>6</v>
@@ -3672,7 +3684,7 @@
         <v>10</v>
       </c>
       <c r="G132" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3683,10 +3695,10 @@
         <v>13</v>
       </c>
       <c r="C133" t="s">
+        <v>43</v>
+      </c>
+      <c r="D133" t="s">
         <v>44</v>
-      </c>
-      <c r="D133" t="s">
-        <v>45</v>
       </c>
       <c r="E133" t="s">
         <v>7</v>
@@ -3695,7 +3707,7 @@
         <v>5</v>
       </c>
       <c r="G133" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3706,10 +3718,10 @@
         <v>13</v>
       </c>
       <c r="C134" t="s">
+        <v>43</v>
+      </c>
+      <c r="D134" t="s">
         <v>44</v>
-      </c>
-      <c r="D134" t="s">
-        <v>45</v>
       </c>
       <c r="E134" t="s">
         <v>8</v>
@@ -3718,7 +3730,7 @@
         <v>5</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3729,7 +3741,7 @@
         <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D135" t="s">
         <v>24</v>
@@ -3741,7 +3753,7 @@
         <v>5</v>
       </c>
       <c r="G135" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3752,7 +3764,7 @@
         <v>13</v>
       </c>
       <c r="C136" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D136" t="s">
         <v>24</v>
@@ -3764,7 +3776,7 @@
         <v>10</v>
       </c>
       <c r="G136" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3775,13 +3787,13 @@
         <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D137" t="s">
         <v>24</v>
       </c>
       <c r="E137" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -3798,7 +3810,7 @@
         <v>13</v>
       </c>
       <c r="C138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D138" t="s">
         <v>24</v>
@@ -3810,7 +3822,7 @@
         <v>15</v>
       </c>
       <c r="G138" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3821,7 +3833,7 @@
         <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D139" t="s">
         <v>23</v>
@@ -3833,7 +3845,7 @@
         <v>10</v>
       </c>
       <c r="G139" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3844,7 +3856,7 @@
         <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D140" t="s">
         <v>23</v>
@@ -3856,7 +3868,7 @@
         <v>5</v>
       </c>
       <c r="G140" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3867,7 +3879,7 @@
         <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D141" t="s">
         <v>23</v>
@@ -3879,7 +3891,7 @@
         <v>5</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3890,7 +3902,7 @@
         <v>13</v>
       </c>
       <c r="C142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D142" t="s">
         <v>17</v>
@@ -3902,7 +3914,7 @@
         <v>5</v>
       </c>
       <c r="G142" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3913,7 +3925,7 @@
         <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D143" t="s">
         <v>17</v>
@@ -3925,7 +3937,7 @@
         <v>10</v>
       </c>
       <c r="G143" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3936,13 +3948,13 @@
         <v>13</v>
       </c>
       <c r="C144" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D144" t="s">
         <v>17</v>
       </c>
       <c r="E144" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F144">
         <v>0</v>
@@ -3959,7 +3971,7 @@
         <v>13</v>
       </c>
       <c r="C145" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D145" t="s">
         <v>17</v>
@@ -3971,7 +3983,7 @@
         <v>15</v>
       </c>
       <c r="G145" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3982,7 +3994,7 @@
         <v>13</v>
       </c>
       <c r="C146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D146" t="s">
         <v>17</v>
@@ -3994,7 +4006,7 @@
         <v>10</v>
       </c>
       <c r="G146" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4005,7 +4017,7 @@
         <v>13</v>
       </c>
       <c r="C147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D147" t="s">
         <v>17</v>
@@ -4017,7 +4029,7 @@
         <v>5</v>
       </c>
       <c r="G147" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4028,7 +4040,7 @@
         <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D148" t="s">
         <v>17</v>
@@ -4040,7 +4052,7 @@
         <v>5</v>
       </c>
       <c r="G148" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4051,7 +4063,7 @@
         <v>26</v>
       </c>
       <c r="C149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D149" t="s">
         <v>25</v>
@@ -4063,7 +4075,7 @@
         <v>5</v>
       </c>
       <c r="G149" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4074,19 +4086,19 @@
         <v>26</v>
       </c>
       <c r="C150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D150" t="s">
         <v>25</v>
       </c>
       <c r="E150" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F150">
         <v>10</v>
       </c>
       <c r="G150" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4097,13 +4109,13 @@
         <v>26</v>
       </c>
       <c r="C151" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D151" t="s">
         <v>25</v>
       </c>
       <c r="E151" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4120,19 +4132,19 @@
         <v>26</v>
       </c>
       <c r="C152" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D152" t="s">
         <v>25</v>
       </c>
       <c r="E152" t="s">
+        <v>51</v>
+      </c>
+      <c r="F152">
+        <v>5</v>
+      </c>
+      <c r="G152" t="s">
         <v>53</v>
-      </c>
-      <c r="F152">
-        <v>5</v>
-      </c>
-      <c r="G152" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4143,7 +4155,7 @@
         <v>26</v>
       </c>
       <c r="C153" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D153" t="s">
         <v>25</v>
@@ -4155,7 +4167,7 @@
         <v>10</v>
       </c>
       <c r="G153" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4166,7 +4178,7 @@
         <v>26</v>
       </c>
       <c r="C154" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D154" t="s">
         <v>25</v>
@@ -4178,7 +4190,7 @@
         <v>5</v>
       </c>
       <c r="G154" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4189,7 +4201,7 @@
         <v>26</v>
       </c>
       <c r="C155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D155" t="s">
         <v>25</v>
@@ -4201,7 +4213,7 @@
         <v>5</v>
       </c>
       <c r="G155" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4212,7 +4224,7 @@
         <v>26</v>
       </c>
       <c r="C156" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D156" t="s">
         <v>23</v>
@@ -4224,7 +4236,7 @@
         <v>5</v>
       </c>
       <c r="G156" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4235,7 +4247,7 @@
         <v>26</v>
       </c>
       <c r="C157" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D157" t="s">
         <v>23</v>
@@ -4247,7 +4259,7 @@
         <v>10</v>
       </c>
       <c r="G157" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4258,13 +4270,13 @@
         <v>26</v>
       </c>
       <c r="C158" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D158" t="s">
         <v>23</v>
       </c>
       <c r="E158" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F158">
         <v>0</v>
@@ -4281,19 +4293,19 @@
         <v>26</v>
       </c>
       <c r="C159" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D159" t="s">
         <v>23</v>
       </c>
       <c r="E159" t="s">
+        <v>51</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
         <v>53</v>
-      </c>
-      <c r="F159">
-        <v>5</v>
-      </c>
-      <c r="G159" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4304,7 +4316,7 @@
         <v>26</v>
       </c>
       <c r="C160" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D160" t="s">
         <v>23</v>
@@ -4316,7 +4328,7 @@
         <v>10</v>
       </c>
       <c r="G160" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4327,7 +4339,7 @@
         <v>26</v>
       </c>
       <c r="C161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D161" t="s">
         <v>23</v>
@@ -4339,7 +4351,7 @@
         <v>5</v>
       </c>
       <c r="G161" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4350,7 +4362,7 @@
         <v>26</v>
       </c>
       <c r="C162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D162" t="s">
         <v>23</v>
@@ -4362,7 +4374,7 @@
         <v>5</v>
       </c>
       <c r="G162" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4373,7 +4385,7 @@
         <v>26</v>
       </c>
       <c r="C163" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D163" t="s">
         <v>17</v>
@@ -4385,7 +4397,7 @@
         <v>5</v>
       </c>
       <c r="G163" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4396,7 +4408,7 @@
         <v>26</v>
       </c>
       <c r="C164" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D164" t="s">
         <v>17</v>
@@ -4408,7 +4420,7 @@
         <v>10</v>
       </c>
       <c r="G164" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4419,13 +4431,13 @@
         <v>26</v>
       </c>
       <c r="C165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D165" t="s">
         <v>17</v>
       </c>
       <c r="E165" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F165">
         <v>0</v>
@@ -4442,19 +4454,19 @@
         <v>26</v>
       </c>
       <c r="C166" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D166" t="s">
         <v>17</v>
       </c>
       <c r="E166" t="s">
+        <v>51</v>
+      </c>
+      <c r="F166">
+        <v>5</v>
+      </c>
+      <c r="G166" t="s">
         <v>53</v>
-      </c>
-      <c r="F166">
-        <v>5</v>
-      </c>
-      <c r="G166" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4465,7 +4477,7 @@
         <v>26</v>
       </c>
       <c r="C167" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D167" t="s">
         <v>17</v>
@@ -4477,7 +4489,7 @@
         <v>10</v>
       </c>
       <c r="G167" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4488,7 +4500,7 @@
         <v>26</v>
       </c>
       <c r="C168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D168" t="s">
         <v>17</v>
@@ -4500,7 +4512,7 @@
         <v>5</v>
       </c>
       <c r="G168" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4511,7 +4523,7 @@
         <v>26</v>
       </c>
       <c r="C169" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D169" t="s">
         <v>17</v>
@@ -4523,7 +4535,7 @@
         <v>5</v>
       </c>
       <c r="G169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
